--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,19 +505,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Gestão - MCT-1A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Gestão - MEC-1A</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Usinagem - MEC-3A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Usinagem - MCT-3A</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gestão - MEC-1A</t>
+          <t>Usinagem - MCT-3A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>Usinagem - MEC-3A</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gestão - MEC-1A</t>
+          <t>Usinagem - MCT-3A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Usinagem - MEC-3A</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>Usinagem - MCT-3A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Usinagem - MCT-3A</t>
+          <t>Gestão - MEC-1A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Usinagem - MEC-3A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gestão - MCT-1A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Usinagem - MCT-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gestão - MCT-1A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Usinagem - MCT-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Usinagem - MEC-3A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Usinagem - MCT-3A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Usinagem - MEC-3A</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gestão - MCT-1A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Usinagem - MEC-3A</t>
+          <t>Mecanica material - MEC-2A</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Usinagem - MEC-3A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>Gestão - MEC-1A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Usinagem - MCT-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Usinagem - MCT-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gestão - MCT-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Usinagem - MEC-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gestão - MEC-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gestão - MEC-1A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Usinagem - MEC-3A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mecanica material - MEC-2A</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -876,38 +876,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
     </row>
@@ -665,66 +665,66 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -788,98 +788,174 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>MCT-1A-Gestão</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>MEC-1A-Gestão</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MCT-3A-Usinagem</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -510,12 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MEC-1A-Gestão</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MCT-3A-Usinagem</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-2A-Mecanica material</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEC-1A-Gestão</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MEC-1A-Gestão</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MCT-3A-Usinagem</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MEC-1A-Gestão</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>MCT-3A-Usinagem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MEC-1A-Gestão</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>MCT-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MCT-3A-Usinagem</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanicamaterial</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Gestão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usinagem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanicamaterial</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>MEC-1A-Gestão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MCT-3A-Usinagem</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanicamaterial</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MCT-3A-Usinagem</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3A-Usinagem</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanicamaterial</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>
@@ -601,19 +601,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MCT-1A-Gestão</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>MEC-1A-Gestão</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MCT-3A-Usinagem</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Mecanica material</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MCT-1A-Gestão</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MEC-1A-Gestão</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MCT-3A-Usinagem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
